--- a/Test Procedure/Symptom Checker/Tuberculosis.xlsx
+++ b/Test Procedure/Symptom Checker/Tuberculosis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="5">
   <si>
     <t>Tuberculosis</t>
   </si>
@@ -25,13 +25,10 @@
     <t>Chickenpox</t>
   </si>
   <si>
-    <t>Conjunctivitis</t>
+    <t>Diabetes</t>
   </si>
   <si>
     <t>Anemia</t>
-  </si>
-  <si>
-    <t>Pollen Allergy</t>
   </si>
 </sst>
 </file>
@@ -732,7 +729,7 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -776,7 +773,7 @@
         <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -875,7 +872,7 @@
         <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1179,7 +1176,7 @@
         <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1235,7 +1232,7 @@
         <v>66</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1361,7 +1358,7 @@
         <v>66</v>
       </c>
       <c r="D85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1571,7 +1568,7 @@
         <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1627,7 +1624,7 @@
         <v>66</v>
       </c>
       <c r="D104" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1753,7 +1750,7 @@
         <v>66</v>
       </c>
       <c r="D113" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1865,7 +1862,7 @@
         <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -1921,7 +1918,7 @@
         <v>66</v>
       </c>
       <c r="D125" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2047,7 +2044,7 @@
         <v>66</v>
       </c>
       <c r="D134" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2215,7 +2212,7 @@
         <v>25</v>
       </c>
       <c r="D146" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2229,7 +2226,7 @@
         <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2243,7 +2240,7 @@
         <v>65</v>
       </c>
       <c r="D148" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2257,7 +2254,7 @@
         <v>66</v>
       </c>
       <c r="D149" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2299,7 +2296,7 @@
         <v>66</v>
       </c>
       <c r="D152" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2327,7 +2324,7 @@
         <v>66</v>
       </c>
       <c r="D154" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2341,7 +2338,7 @@
         <v>66</v>
       </c>
       <c r="D155" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2523,7 +2520,7 @@
         <v>66</v>
       </c>
       <c r="D168" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -2551,7 +2548,7 @@
         <v>66</v>
       </c>
       <c r="D170" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -2565,7 +2562,7 @@
         <v>66</v>
       </c>
       <c r="D171" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -2774,7 +2771,7 @@
         <v>24</v>
       </c>
       <c r="E184" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -2842,7 +2839,7 @@
         <v>66</v>
       </c>
       <c r="E188" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -2995,7 +2992,7 @@
         <v>66</v>
       </c>
       <c r="E197" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3131,7 +3128,7 @@
         <v>24</v>
       </c>
       <c r="E205" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3199,7 +3196,7 @@
         <v>66</v>
       </c>
       <c r="E209" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3352,7 +3349,7 @@
         <v>66</v>
       </c>
       <c r="E218" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -3556,7 +3553,7 @@
         <v>25</v>
       </c>
       <c r="E230" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -3573,7 +3570,7 @@
         <v>41</v>
       </c>
       <c r="E231" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -3590,7 +3587,7 @@
         <v>65</v>
       </c>
       <c r="E232" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -3607,7 +3604,7 @@
         <v>66</v>
       </c>
       <c r="E233" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -3658,7 +3655,7 @@
         <v>66</v>
       </c>
       <c r="E236" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -3692,7 +3689,7 @@
         <v>66</v>
       </c>
       <c r="E238" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -3709,7 +3706,7 @@
         <v>66</v>
       </c>
       <c r="E239" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -3930,7 +3927,7 @@
         <v>66</v>
       </c>
       <c r="E252" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -3964,7 +3961,7 @@
         <v>66</v>
       </c>
       <c r="E254" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -3981,7 +3978,7 @@
         <v>66</v>
       </c>
       <c r="E255" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4083,7 +4080,7 @@
         <v>24</v>
       </c>
       <c r="E261" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4151,7 +4148,7 @@
         <v>66</v>
       </c>
       <c r="E265" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4304,7 +4301,7 @@
         <v>66</v>
       </c>
       <c r="E274" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -4508,7 +4505,7 @@
         <v>25</v>
       </c>
       <c r="E286" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -4525,7 +4522,7 @@
         <v>41</v>
       </c>
       <c r="E287" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -4542,7 +4539,7 @@
         <v>65</v>
       </c>
       <c r="E288" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -4559,7 +4556,7 @@
         <v>66</v>
       </c>
       <c r="E289" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -4610,7 +4607,7 @@
         <v>66</v>
       </c>
       <c r="E292" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -4644,7 +4641,7 @@
         <v>66</v>
       </c>
       <c r="E294" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -4661,7 +4658,7 @@
         <v>66</v>
       </c>
       <c r="E295" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -4882,7 +4879,7 @@
         <v>66</v>
       </c>
       <c r="E308" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -4916,7 +4913,7 @@
         <v>66</v>
       </c>
       <c r="E310" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -4933,7 +4930,7 @@
         <v>66</v>
       </c>
       <c r="E311" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5103,7 +5100,7 @@
         <v>25</v>
       </c>
       <c r="E321" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5120,7 +5117,7 @@
         <v>41</v>
       </c>
       <c r="E322" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5137,7 +5134,7 @@
         <v>65</v>
       </c>
       <c r="E323" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5154,7 +5151,7 @@
         <v>66</v>
       </c>
       <c r="E324" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5205,7 +5202,7 @@
         <v>66</v>
       </c>
       <c r="E327" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5239,7 +5236,7 @@
         <v>66</v>
       </c>
       <c r="E329" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5256,7 +5253,7 @@
         <v>66</v>
       </c>
       <c r="E330" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5477,7 +5474,7 @@
         <v>66</v>
       </c>
       <c r="E343" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -5511,7 +5508,7 @@
         <v>66</v>
       </c>
       <c r="E345" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -5528,7 +5525,7 @@
         <v>66</v>
       </c>
       <c r="E346" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -5664,7 +5661,7 @@
         <v>66</v>
       </c>
       <c r="E354" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -5783,7 +5780,7 @@
         <v>41</v>
       </c>
       <c r="E361" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -5800,7 +5797,7 @@
         <v>65</v>
       </c>
       <c r="E362" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -5817,7 +5814,7 @@
         <v>66</v>
       </c>
       <c r="E363" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -5834,7 +5831,7 @@
         <v>65</v>
       </c>
       <c r="E364" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -5851,7 +5848,7 @@
         <v>66</v>
       </c>
       <c r="E365" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -5868,7 +5865,7 @@
         <v>66</v>
       </c>
       <c r="E366" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -5902,7 +5899,7 @@
         <v>66</v>
       </c>
       <c r="E368" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -5919,7 +5916,7 @@
         <v>66</v>
       </c>
       <c r="E369" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -5936,7 +5933,7 @@
         <v>66</v>
       </c>
       <c r="E370" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6140,7 +6137,7 @@
         <v>66</v>
       </c>
       <c r="E382" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6157,7 +6154,7 @@
         <v>66</v>
       </c>
       <c r="E383" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6174,7 +6171,7 @@
         <v>66</v>
       </c>
       <c r="E384" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -6231,7 +6228,7 @@
         <v>24</v>
       </c>
       <c r="F387" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -6311,7 +6308,7 @@
         <v>66</v>
       </c>
       <c r="F391" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -6491,7 +6488,7 @@
         <v>66</v>
       </c>
       <c r="F400" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -6731,7 +6728,7 @@
         <v>25</v>
       </c>
       <c r="F412" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -6751,7 +6748,7 @@
         <v>41</v>
       </c>
       <c r="F413" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -6771,7 +6768,7 @@
         <v>65</v>
       </c>
       <c r="F414" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -6791,7 +6788,7 @@
         <v>66</v>
       </c>
       <c r="F415" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -6851,7 +6848,7 @@
         <v>66</v>
       </c>
       <c r="F418" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -6891,7 +6888,7 @@
         <v>66</v>
       </c>
       <c r="F420" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -6911,7 +6908,7 @@
         <v>66</v>
       </c>
       <c r="F421" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -7171,7 +7168,7 @@
         <v>66</v>
       </c>
       <c r="F434" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -7211,7 +7208,7 @@
         <v>66</v>
       </c>
       <c r="F436" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -7231,7 +7228,7 @@
         <v>66</v>
       </c>
       <c r="F437" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -7431,7 +7428,7 @@
         <v>25</v>
       </c>
       <c r="F447" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -7451,7 +7448,7 @@
         <v>41</v>
       </c>
       <c r="F448" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -7471,7 +7468,7 @@
         <v>65</v>
       </c>
       <c r="F449" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -7491,7 +7488,7 @@
         <v>66</v>
       </c>
       <c r="F450" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -7551,7 +7548,7 @@
         <v>66</v>
       </c>
       <c r="F453" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -7591,7 +7588,7 @@
         <v>66</v>
       </c>
       <c r="F455" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -7611,7 +7608,7 @@
         <v>66</v>
       </c>
       <c r="F456" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -7871,7 +7868,7 @@
         <v>66</v>
       </c>
       <c r="F469" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -7911,7 +7908,7 @@
         <v>66</v>
       </c>
       <c r="F471" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -7931,7 +7928,7 @@
         <v>66</v>
       </c>
       <c r="F472" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:6">
@@ -8091,7 +8088,7 @@
         <v>66</v>
       </c>
       <c r="F480" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -8231,7 +8228,7 @@
         <v>41</v>
       </c>
       <c r="F487" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -8251,7 +8248,7 @@
         <v>65</v>
       </c>
       <c r="F488" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -8271,7 +8268,7 @@
         <v>66</v>
       </c>
       <c r="F489" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -8291,7 +8288,7 @@
         <v>65</v>
       </c>
       <c r="F490" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -8311,7 +8308,7 @@
         <v>66</v>
       </c>
       <c r="F491" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -8331,7 +8328,7 @@
         <v>66</v>
       </c>
       <c r="F492" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -8371,7 +8368,7 @@
         <v>66</v>
       </c>
       <c r="F494" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -8391,7 +8388,7 @@
         <v>66</v>
       </c>
       <c r="F495" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -8411,7 +8408,7 @@
         <v>66</v>
       </c>
       <c r="F496" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -8651,7 +8648,7 @@
         <v>66</v>
       </c>
       <c r="F508" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:6">
@@ -8671,7 +8668,7 @@
         <v>66</v>
       </c>
       <c r="F509" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:6">
@@ -8691,7 +8688,7 @@
         <v>66</v>
       </c>
       <c r="F510" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:6">
@@ -8831,7 +8828,7 @@
         <v>25</v>
       </c>
       <c r="F517" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -8851,7 +8848,7 @@
         <v>41</v>
       </c>
       <c r="F518" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:6">
@@ -8871,7 +8868,7 @@
         <v>65</v>
       </c>
       <c r="F519" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -8891,7 +8888,7 @@
         <v>66</v>
       </c>
       <c r="F520" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -8951,7 +8948,7 @@
         <v>66</v>
       </c>
       <c r="F523" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -8991,7 +8988,7 @@
         <v>66</v>
       </c>
       <c r="F525" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -9011,7 +9008,7 @@
         <v>66</v>
       </c>
       <c r="F526" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -9271,7 +9268,7 @@
         <v>66</v>
       </c>
       <c r="F539" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:6">
@@ -9311,7 +9308,7 @@
         <v>66</v>
       </c>
       <c r="F541" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:6">
@@ -9331,7 +9328,7 @@
         <v>66</v>
       </c>
       <c r="F542" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -9491,7 +9488,7 @@
         <v>66</v>
       </c>
       <c r="F550" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -9631,7 +9628,7 @@
         <v>41</v>
       </c>
       <c r="F557" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -9651,7 +9648,7 @@
         <v>65</v>
       </c>
       <c r="F558" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -9671,7 +9668,7 @@
         <v>66</v>
       </c>
       <c r="F559" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -9691,7 +9688,7 @@
         <v>65</v>
       </c>
       <c r="F560" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -9711,7 +9708,7 @@
         <v>66</v>
       </c>
       <c r="F561" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -9731,7 +9728,7 @@
         <v>66</v>
       </c>
       <c r="F562" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -9771,7 +9768,7 @@
         <v>66</v>
       </c>
       <c r="F564" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -9791,7 +9788,7 @@
         <v>66</v>
       </c>
       <c r="F565" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -9811,7 +9808,7 @@
         <v>66</v>
       </c>
       <c r="F566" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:6">
@@ -10051,7 +10048,7 @@
         <v>66</v>
       </c>
       <c r="F578" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -10071,7 +10068,7 @@
         <v>66</v>
       </c>
       <c r="F579" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -10091,7 +10088,7 @@
         <v>66</v>
       </c>
       <c r="F580" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -10191,7 +10188,7 @@
         <v>66</v>
       </c>
       <c r="F585" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -10331,7 +10328,7 @@
         <v>41</v>
       </c>
       <c r="F592" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:6">
@@ -10351,7 +10348,7 @@
         <v>65</v>
       </c>
       <c r="F593" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:6">
@@ -10371,7 +10368,7 @@
         <v>66</v>
       </c>
       <c r="F594" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:6">
@@ -10391,7 +10388,7 @@
         <v>65</v>
       </c>
       <c r="F595" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:6">
@@ -10411,7 +10408,7 @@
         <v>66</v>
       </c>
       <c r="F596" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:6">
@@ -10431,7 +10428,7 @@
         <v>66</v>
       </c>
       <c r="F597" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:6">
@@ -10471,7 +10468,7 @@
         <v>66</v>
       </c>
       <c r="F599" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -10491,7 +10488,7 @@
         <v>66</v>
       </c>
       <c r="F600" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -10511,7 +10508,7 @@
         <v>66</v>
       </c>
       <c r="F601" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -10751,7 +10748,7 @@
         <v>66</v>
       </c>
       <c r="F613" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -10771,7 +10768,7 @@
         <v>66</v>
       </c>
       <c r="F614" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -10791,7 +10788,7 @@
         <v>66</v>
       </c>
       <c r="F615" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -10871,7 +10868,7 @@
         <v>66</v>
       </c>
       <c r="F619" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -10911,7 +10908,7 @@
         <v>66</v>
       </c>
       <c r="F621" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:6">
@@ -10931,7 +10928,7 @@
         <v>66</v>
       </c>
       <c r="F622" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:6">
@@ -10971,7 +10968,7 @@
         <v>66</v>
       </c>
       <c r="F624" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:7">
@@ -11031,7 +11028,7 @@
         <v>65</v>
       </c>
       <c r="F627" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:7">
@@ -11051,7 +11048,7 @@
         <v>66</v>
       </c>
       <c r="F628" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:7">
@@ -11071,7 +11068,7 @@
         <v>66</v>
       </c>
       <c r="F629" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:7">
@@ -11091,7 +11088,7 @@
         <v>66</v>
       </c>
       <c r="F630" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:7">
@@ -11111,7 +11108,7 @@
         <v>66</v>
       </c>
       <c r="F631" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:7">
@@ -11231,7 +11228,7 @@
         <v>66</v>
       </c>
       <c r="F637" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:7">
@@ -11369,7 +11366,7 @@
         <v>25</v>
       </c>
       <c r="G643" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:7">
@@ -11392,7 +11389,7 @@
         <v>41</v>
       </c>
       <c r="G644" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:7">
@@ -11415,7 +11412,7 @@
         <v>65</v>
       </c>
       <c r="G645" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:7">
@@ -11438,7 +11435,7 @@
         <v>66</v>
       </c>
       <c r="G646" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:7">
@@ -11507,7 +11504,7 @@
         <v>66</v>
       </c>
       <c r="G649" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:7">
@@ -11553,7 +11550,7 @@
         <v>66</v>
       </c>
       <c r="G651" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:7">
@@ -11576,7 +11573,7 @@
         <v>66</v>
       </c>
       <c r="G652" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:7">
@@ -11875,7 +11872,7 @@
         <v>66</v>
       </c>
       <c r="G665" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:7">
@@ -11921,7 +11918,7 @@
         <v>66</v>
       </c>
       <c r="G667" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:7">
@@ -11944,7 +11941,7 @@
         <v>66</v>
       </c>
       <c r="G668" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:7">
@@ -12105,7 +12102,7 @@
         <v>65</v>
       </c>
       <c r="G675" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:7">
@@ -12128,7 +12125,7 @@
         <v>66</v>
       </c>
       <c r="G676" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:7">
@@ -12289,7 +12286,7 @@
         <v>41</v>
       </c>
       <c r="G683" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:7">
@@ -12312,7 +12309,7 @@
         <v>65</v>
       </c>
       <c r="G684" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:7">
@@ -12335,7 +12332,7 @@
         <v>66</v>
       </c>
       <c r="G685" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:7">
@@ -12358,7 +12355,7 @@
         <v>65</v>
       </c>
       <c r="G686" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:7">
@@ -12381,7 +12378,7 @@
         <v>66</v>
       </c>
       <c r="G687" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:7">
@@ -12404,7 +12401,7 @@
         <v>66</v>
       </c>
       <c r="G688" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:7">
@@ -12450,7 +12447,7 @@
         <v>66</v>
       </c>
       <c r="G690" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:7">
@@ -12473,7 +12470,7 @@
         <v>66</v>
       </c>
       <c r="G691" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:7">
@@ -12496,7 +12493,7 @@
         <v>66</v>
       </c>
       <c r="G692" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:7">
@@ -12772,7 +12769,7 @@
         <v>66</v>
       </c>
       <c r="G704" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:7">
@@ -12795,7 +12792,7 @@
         <v>66</v>
       </c>
       <c r="G705" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:7">
@@ -12818,7 +12815,7 @@
         <v>66</v>
       </c>
       <c r="G706" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:7">
@@ -12933,7 +12930,7 @@
         <v>66</v>
       </c>
       <c r="G711" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:7">
@@ -13094,7 +13091,7 @@
         <v>41</v>
       </c>
       <c r="G718" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:7">
@@ -13117,7 +13114,7 @@
         <v>65</v>
       </c>
       <c r="G719" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:7">
@@ -13140,7 +13137,7 @@
         <v>66</v>
       </c>
       <c r="G720" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:7">
@@ -13163,7 +13160,7 @@
         <v>65</v>
       </c>
       <c r="G721" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:7">
@@ -13186,7 +13183,7 @@
         <v>66</v>
       </c>
       <c r="G722" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:7">
@@ -13209,7 +13206,7 @@
         <v>66</v>
       </c>
       <c r="G723" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:7">
@@ -13255,7 +13252,7 @@
         <v>66</v>
       </c>
       <c r="G725" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:7">
@@ -13278,7 +13275,7 @@
         <v>66</v>
       </c>
       <c r="G726" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:7">
@@ -13301,7 +13298,7 @@
         <v>66</v>
       </c>
       <c r="G727" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:7">
@@ -13577,7 +13574,7 @@
         <v>66</v>
       </c>
       <c r="G739" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:7">
@@ -13600,7 +13597,7 @@
         <v>66</v>
       </c>
       <c r="G740" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:7">
@@ -13623,7 +13620,7 @@
         <v>66</v>
       </c>
       <c r="G741" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:7">
@@ -13715,7 +13712,7 @@
         <v>66</v>
       </c>
       <c r="G745" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:7">
@@ -13761,7 +13758,7 @@
         <v>66</v>
       </c>
       <c r="G747" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:7">
@@ -13784,7 +13781,7 @@
         <v>66</v>
       </c>
       <c r="G748" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:7">
@@ -13830,7 +13827,7 @@
         <v>66</v>
       </c>
       <c r="G750" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:7">
@@ -13899,7 +13896,7 @@
         <v>65</v>
       </c>
       <c r="G753" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:7">
@@ -13922,7 +13919,7 @@
         <v>66</v>
       </c>
       <c r="G754" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:7">
@@ -13945,7 +13942,7 @@
         <v>66</v>
       </c>
       <c r="G755" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:7">
@@ -13968,7 +13965,7 @@
         <v>66</v>
       </c>
       <c r="G756" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:7">
@@ -13991,7 +13988,7 @@
         <v>66</v>
       </c>
       <c r="G757" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:7">
@@ -14129,7 +14126,7 @@
         <v>66</v>
       </c>
       <c r="G763" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:7">
@@ -14221,7 +14218,7 @@
         <v>66</v>
       </c>
       <c r="G767" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:7">
@@ -14382,7 +14379,7 @@
         <v>41</v>
       </c>
       <c r="G774" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:7">
@@ -14405,7 +14402,7 @@
         <v>65</v>
       </c>
       <c r="G775" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:7">
@@ -14428,7 +14425,7 @@
         <v>66</v>
       </c>
       <c r="G776" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:7">
@@ -14451,7 +14448,7 @@
         <v>65</v>
       </c>
       <c r="G777" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:7">
@@ -14474,7 +14471,7 @@
         <v>66</v>
       </c>
       <c r="G778" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:7">
@@ -14497,7 +14494,7 @@
         <v>66</v>
       </c>
       <c r="G779" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:7">
@@ -14543,7 +14540,7 @@
         <v>66</v>
       </c>
       <c r="G781" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:7">
@@ -14566,7 +14563,7 @@
         <v>66</v>
       </c>
       <c r="G782" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:7">
@@ -14589,7 +14586,7 @@
         <v>66</v>
       </c>
       <c r="G783" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:7">
@@ -14865,7 +14862,7 @@
         <v>66</v>
       </c>
       <c r="G795" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:7">
@@ -14888,7 +14885,7 @@
         <v>66</v>
       </c>
       <c r="G796" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:7">
@@ -14911,7 +14908,7 @@
         <v>66</v>
       </c>
       <c r="G797" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:7">
@@ -15003,7 +15000,7 @@
         <v>66</v>
       </c>
       <c r="G801" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:7">
@@ -15049,7 +15046,7 @@
         <v>66</v>
       </c>
       <c r="G803" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:7">
@@ -15072,7 +15069,7 @@
         <v>66</v>
       </c>
       <c r="G804" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:7">
@@ -15118,7 +15115,7 @@
         <v>66</v>
       </c>
       <c r="G806" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:7">
@@ -15187,7 +15184,7 @@
         <v>65</v>
       </c>
       <c r="G809" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:7">
@@ -15210,7 +15207,7 @@
         <v>66</v>
       </c>
       <c r="G810" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:7">
@@ -15233,7 +15230,7 @@
         <v>66</v>
       </c>
       <c r="G811" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:7">
@@ -15256,7 +15253,7 @@
         <v>66</v>
       </c>
       <c r="G812" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:7">
@@ -15279,7 +15276,7 @@
         <v>66</v>
       </c>
       <c r="G813" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:7">
@@ -15417,7 +15414,7 @@
         <v>66</v>
       </c>
       <c r="G819" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:7">
@@ -15486,7 +15483,7 @@
         <v>66</v>
       </c>
       <c r="G822" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:7">
@@ -15532,7 +15529,7 @@
         <v>66</v>
       </c>
       <c r="G824" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:7">
@@ -15555,7 +15552,7 @@
         <v>66</v>
       </c>
       <c r="G825" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:7">
@@ -15601,7 +15598,7 @@
         <v>66</v>
       </c>
       <c r="G827" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:7">
@@ -15670,7 +15667,7 @@
         <v>65</v>
       </c>
       <c r="G830" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:7">
@@ -15693,7 +15690,7 @@
         <v>66</v>
       </c>
       <c r="G831" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:7">
@@ -15716,7 +15713,7 @@
         <v>66</v>
       </c>
       <c r="G832" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -15739,7 +15736,7 @@
         <v>66</v>
       </c>
       <c r="G833" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -15762,7 +15759,7 @@
         <v>66</v>
       </c>
       <c r="G834" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -15900,7 +15897,7 @@
         <v>66</v>
       </c>
       <c r="G840" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -15969,7 +15966,7 @@
         <v>66</v>
       </c>
       <c r="G843" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -15992,7 +15989,7 @@
         <v>66</v>
       </c>
       <c r="G844" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -16015,7 +16012,7 @@
         <v>66</v>
       </c>
       <c r="G845" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -16038,7 +16035,7 @@
         <v>66</v>
       </c>
       <c r="G846" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -16139,7 +16136,7 @@
         <v>65</v>
       </c>
       <c r="H850" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -16165,7 +16162,7 @@
         <v>66</v>
       </c>
       <c r="H851" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -16321,7 +16318,7 @@
         <v>66</v>
       </c>
       <c r="H857" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -16347,7 +16344,7 @@
         <v>41</v>
       </c>
       <c r="H858" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -16373,7 +16370,7 @@
         <v>65</v>
       </c>
       <c r="H859" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -16399,7 +16396,7 @@
         <v>66</v>
       </c>
       <c r="H860" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -16425,7 +16422,7 @@
         <v>65</v>
       </c>
       <c r="H861" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -16451,7 +16448,7 @@
         <v>66</v>
       </c>
       <c r="H862" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -16477,7 +16474,7 @@
         <v>66</v>
       </c>
       <c r="H863" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -16529,7 +16526,7 @@
         <v>66</v>
       </c>
       <c r="H865" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -16555,7 +16552,7 @@
         <v>66</v>
       </c>
       <c r="H866" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -16581,7 +16578,7 @@
         <v>66</v>
       </c>
       <c r="H867" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -16737,7 +16734,7 @@
         <v>66</v>
       </c>
       <c r="H873" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -16893,7 +16890,7 @@
         <v>66</v>
       </c>
       <c r="H879" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -16919,7 +16916,7 @@
         <v>66</v>
       </c>
       <c r="H880" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -16945,7 +16942,7 @@
         <v>66</v>
       </c>
       <c r="H881" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -17023,7 +17020,7 @@
         <v>65</v>
       </c>
       <c r="H884" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -17049,7 +17046,7 @@
         <v>66</v>
       </c>
       <c r="H885" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -17075,7 +17072,7 @@
         <v>65</v>
       </c>
       <c r="H886" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -17101,7 +17098,7 @@
         <v>66</v>
       </c>
       <c r="H887" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -17127,7 +17124,7 @@
         <v>66</v>
       </c>
       <c r="H888" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -17179,7 +17176,7 @@
         <v>66</v>
       </c>
       <c r="H890" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -17257,7 +17254,7 @@
         <v>65</v>
       </c>
       <c r="H893" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -17283,7 +17280,7 @@
         <v>66</v>
       </c>
       <c r="H894" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -17309,7 +17306,7 @@
         <v>66</v>
       </c>
       <c r="H895" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -17335,7 +17332,7 @@
         <v>66</v>
       </c>
       <c r="H896" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -17361,7 +17358,7 @@
         <v>66</v>
       </c>
       <c r="H897" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -17517,7 +17514,7 @@
         <v>66</v>
       </c>
       <c r="H903" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -17595,7 +17592,7 @@
         <v>66</v>
       </c>
       <c r="H906" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -17647,7 +17644,7 @@
         <v>66</v>
       </c>
       <c r="H908" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -17673,7 +17670,7 @@
         <v>66</v>
       </c>
       <c r="H909" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -17725,7 +17722,7 @@
         <v>66</v>
       </c>
       <c r="H911" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -17803,7 +17800,7 @@
         <v>65</v>
       </c>
       <c r="H914" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -17829,7 +17826,7 @@
         <v>66</v>
       </c>
       <c r="H915" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -17855,7 +17852,7 @@
         <v>66</v>
       </c>
       <c r="H916" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -17881,7 +17878,7 @@
         <v>66</v>
       </c>
       <c r="H917" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -17907,7 +17904,7 @@
         <v>66</v>
       </c>
       <c r="H918" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -18063,7 +18060,7 @@
         <v>66</v>
       </c>
       <c r="H924" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -18141,7 +18138,7 @@
         <v>66</v>
       </c>
       <c r="H927" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -18167,7 +18164,7 @@
         <v>66</v>
       </c>
       <c r="H928" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -18193,7 +18190,7 @@
         <v>66</v>
       </c>
       <c r="H929" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -18219,7 +18216,7 @@
         <v>66</v>
       </c>
       <c r="H930" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -18323,7 +18320,7 @@
         <v>66</v>
       </c>
       <c r="H934" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -18375,7 +18372,7 @@
         <v>66</v>
       </c>
       <c r="H936" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -18401,7 +18398,7 @@
         <v>66</v>
       </c>
       <c r="H937" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -18453,7 +18450,7 @@
         <v>66</v>
       </c>
       <c r="H939" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -18531,7 +18528,7 @@
         <v>65</v>
       </c>
       <c r="H942" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -18557,7 +18554,7 @@
         <v>66</v>
       </c>
       <c r="H943" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -18583,7 +18580,7 @@
         <v>66</v>
       </c>
       <c r="H944" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -18609,7 +18606,7 @@
         <v>66</v>
       </c>
       <c r="H945" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -18635,7 +18632,7 @@
         <v>66</v>
       </c>
       <c r="H946" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -18791,7 +18788,7 @@
         <v>66</v>
       </c>
       <c r="H952" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -18869,7 +18866,7 @@
         <v>66</v>
       </c>
       <c r="H955" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -18895,7 +18892,7 @@
         <v>66</v>
       </c>
       <c r="H956" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -18921,7 +18918,7 @@
         <v>66</v>
       </c>
       <c r="H957" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -18947,7 +18944,7 @@
         <v>66</v>
       </c>
       <c r="H958" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -19051,7 +19048,7 @@
         <v>66</v>
       </c>
       <c r="H962" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:9">
@@ -19077,7 +19074,7 @@
         <v>66</v>
       </c>
       <c r="H963" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:9">
@@ -19103,7 +19100,7 @@
         <v>66</v>
       </c>
       <c r="H964" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:9">
@@ -19129,7 +19126,7 @@
         <v>66</v>
       </c>
       <c r="H965" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:9">
@@ -19239,7 +19236,7 @@
         <v>65</v>
       </c>
       <c r="I969" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:9">
@@ -19268,7 +19265,7 @@
         <v>66</v>
       </c>
       <c r="I970" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:9">
@@ -19297,7 +19294,7 @@
         <v>65</v>
       </c>
       <c r="I971" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:9">
@@ -19326,7 +19323,7 @@
         <v>66</v>
       </c>
       <c r="I972" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:9">
@@ -19355,7 +19352,7 @@
         <v>66</v>
       </c>
       <c r="I973" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:9">
@@ -19413,7 +19410,7 @@
         <v>66</v>
       </c>
       <c r="I975" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:9">
@@ -19442,7 +19439,7 @@
         <v>66</v>
       </c>
       <c r="I976" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:9">
@@ -19471,7 +19468,7 @@
         <v>66</v>
       </c>
       <c r="I977" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:9">
@@ -19500,7 +19497,7 @@
         <v>65</v>
       </c>
       <c r="I978" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:9">
@@ -19529,7 +19526,7 @@
         <v>66</v>
       </c>
       <c r="I979" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:9">
@@ -19558,7 +19555,7 @@
         <v>66</v>
       </c>
       <c r="I980" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:9">
@@ -19587,7 +19584,7 @@
         <v>66</v>
       </c>
       <c r="I981" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:9">
@@ -19616,7 +19613,7 @@
         <v>66</v>
       </c>
       <c r="I982" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:9">
@@ -19703,7 +19700,7 @@
         <v>66</v>
       </c>
       <c r="I985" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:9">
@@ -19732,7 +19729,7 @@
         <v>66</v>
       </c>
       <c r="I986" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:9">
@@ -19790,7 +19787,7 @@
         <v>66</v>
       </c>
       <c r="I988" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:9">
@@ -19877,7 +19874,7 @@
         <v>66</v>
       </c>
       <c r="I991" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:9">
@@ -19906,7 +19903,7 @@
         <v>66</v>
       </c>
       <c r="I992" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:9">
@@ -19935,7 +19932,7 @@
         <v>66</v>
       </c>
       <c r="I993" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:9">
@@ -19964,7 +19961,7 @@
         <v>66</v>
       </c>
       <c r="I994" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:9">
@@ -20080,7 +20077,7 @@
         <v>66</v>
       </c>
       <c r="I998" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:9">
@@ -20109,7 +20106,7 @@
         <v>66</v>
       </c>
       <c r="I999" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:9">
@@ -20138,7 +20135,7 @@
         <v>66</v>
       </c>
       <c r="I1000" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:9">
@@ -20167,7 +20164,7 @@
         <v>66</v>
       </c>
       <c r="I1001" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1002" spans="1:9">
@@ -20312,7 +20309,7 @@
         <v>66</v>
       </c>
       <c r="I1006" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:9">
@@ -20341,7 +20338,7 @@
         <v>66</v>
       </c>
       <c r="I1007" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:9">
@@ -20370,7 +20367,7 @@
         <v>66</v>
       </c>
       <c r="I1008" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:11">
@@ -20399,7 +20396,7 @@
         <v>66</v>
       </c>
       <c r="I1009" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:11">
@@ -20582,7 +20579,7 @@
         <v>66</v>
       </c>
       <c r="J1015" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:11">
@@ -20614,7 +20611,7 @@
         <v>66</v>
       </c>
       <c r="J1016" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:11">
@@ -20646,7 +20643,7 @@
         <v>66</v>
       </c>
       <c r="J1017" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:11">
@@ -20678,7 +20675,7 @@
         <v>66</v>
       </c>
       <c r="J1018" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1019" spans="1:11">

--- a/Test Procedure/Symptom Checker/Tuberculosis.xlsx
+++ b/Test Procedure/Symptom Checker/Tuberculosis.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mason/Documents/Senior-Design-2-Electric-Boogaloo/Test Procedure/Symptom Checker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Tuberculosis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,8 +47,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,14 +77,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -118,12 +140,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -150,14 +172,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -184,6 +207,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,46 +383,211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1023"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2">
+        <f t="shared" ref="E2:N2" si="0">COUNTIF(B:B, "Tuberculosis")</f>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>SUM(E2:N2)</f>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3">
+        <f t="shared" ref="E3:N3" si="1">COUNTIF(B:B, "*")</f>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f>SUM(E3:N3)</f>
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" s="1">
+        <f>E2/E3</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:P4" si="2">F2/F3</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99603174603174605</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.97619047619047616</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96480938416422291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20</v>
       </c>
@@ -406,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>24</v>
       </c>
@@ -414,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>25</v>
       </c>
@@ -422,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>41</v>
       </c>
@@ -430,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>65</v>
       </c>
@@ -438,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>66</v>
       </c>
@@ -446,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -457,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -468,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -479,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -490,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -501,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -512,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -523,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -534,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -545,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -556,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -567,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -578,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -589,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -600,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -611,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -622,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -633,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -644,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -655,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -666,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -677,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -688,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -699,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6</v>
       </c>
@@ -710,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -721,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -732,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -743,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9</v>
       </c>
@@ -754,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9</v>
       </c>
@@ -765,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9</v>
       </c>
@@ -776,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>20</v>
       </c>
@@ -787,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>20</v>
       </c>
@@ -798,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>20</v>
       </c>
@@ -809,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>20</v>
       </c>
@@ -820,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>20</v>
       </c>
@@ -831,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>24</v>
       </c>
@@ -842,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>24</v>
       </c>
@@ -853,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>24</v>
       </c>
@@ -864,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>24</v>
       </c>
@@ -875,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>25</v>
       </c>
@@ -886,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>25</v>
       </c>
@@ -897,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>25</v>
       </c>
@@ -908,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>41</v>
       </c>
@@ -919,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>41</v>
       </c>
@@ -930,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>65</v>
       </c>
@@ -941,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -955,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -969,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -983,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -997,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1011,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1025,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -1039,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
@@ -1053,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
@@ -1067,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
@@ -1081,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -1095,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -1109,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2</v>
       </c>
@@ -1123,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2</v>
       </c>
@@ -1137,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -1151,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
@@ -1165,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2</v>
       </c>
@@ -1179,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2</v>
       </c>
@@ -1193,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
@@ -1207,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2</v>
       </c>
@@ -1221,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -1235,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2</v>
       </c>
@@ -1249,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2</v>
       </c>
@@ -1263,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2</v>
       </c>
@@ -1277,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2</v>
       </c>
@@ -1291,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2</v>
       </c>
@@ -1305,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2</v>
       </c>
@@ -1319,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2</v>
       </c>
@@ -1333,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2</v>
       </c>
@@ -1347,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2</v>
       </c>
@@ -1361,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2</v>
       </c>
@@ -1375,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2</v>
       </c>
@@ -1389,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2</v>
       </c>
@@ -1403,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2</v>
       </c>
@@ -1417,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2</v>
       </c>
@@ -1431,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2</v>
       </c>
@@ -1445,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>3</v>
       </c>
@@ -1459,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3</v>
       </c>
@@ -1473,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3</v>
       </c>
@@ -1487,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>3</v>
       </c>
@@ -1501,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>3</v>
       </c>
@@ -1515,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>3</v>
       </c>
@@ -1529,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3</v>
       </c>
@@ -1543,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3</v>
       </c>
@@ -1557,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3</v>
       </c>
@@ -1571,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3</v>
       </c>
@@ -1585,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3</v>
       </c>
@@ -1599,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3</v>
       </c>
@@ -1613,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3</v>
       </c>
@@ -1627,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3</v>
       </c>
@@ -1641,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3</v>
       </c>
@@ -1655,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3</v>
       </c>
@@ -1669,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3</v>
       </c>
@@ -1683,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3</v>
       </c>
@@ -1697,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3</v>
       </c>
@@ -1711,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3</v>
       </c>
@@ -1725,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3</v>
       </c>
@@ -1739,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3</v>
       </c>
@@ -1753,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3</v>
       </c>
@@ -1767,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3</v>
       </c>
@@ -1781,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3</v>
       </c>
@@ -1795,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3</v>
       </c>
@@ -1809,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3</v>
       </c>
@@ -1823,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3</v>
       </c>
@@ -1837,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>6</v>
       </c>
@@ -1851,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>6</v>
       </c>
@@ -1865,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>6</v>
       </c>
@@ -1879,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>6</v>
       </c>
@@ -1893,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>6</v>
       </c>
@@ -1907,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>6</v>
       </c>
@@ -1921,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>6</v>
       </c>
@@ -1935,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>6</v>
       </c>
@@ -1949,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>6</v>
       </c>
@@ -1963,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>6</v>
       </c>
@@ -1977,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>6</v>
       </c>
@@ -1991,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>6</v>
       </c>
@@ -2005,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>6</v>
       </c>
@@ -2019,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>6</v>
       </c>
@@ -2033,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>6</v>
       </c>
@@ -2047,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>6</v>
       </c>
@@ -2061,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>6</v>
       </c>
@@ -2075,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>6</v>
       </c>
@@ -2089,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>6</v>
       </c>
@@ -2103,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>6</v>
       </c>
@@ -2117,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>6</v>
       </c>
@@ -2131,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>9</v>
       </c>
@@ -2145,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>9</v>
       </c>
@@ -2159,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>9</v>
       </c>
@@ -2173,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>9</v>
       </c>
@@ -2187,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>9</v>
       </c>
@@ -2201,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>9</v>
       </c>
@@ -2215,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>9</v>
       </c>
@@ -2229,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>9</v>
       </c>
@@ -2243,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>9</v>
       </c>
@@ -2257,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>9</v>
       </c>
@@ -2271,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>9</v>
       </c>
@@ -2285,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>9</v>
       </c>
@@ -2299,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>9</v>
       </c>
@@ -2313,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>9</v>
       </c>
@@ -2327,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>9</v>
       </c>
@@ -2341,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>20</v>
       </c>
@@ -2355,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>20</v>
       </c>
@@ -2369,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>20</v>
       </c>
@@ -2383,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>20</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>20</v>
       </c>
@@ -2411,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>20</v>
       </c>
@@ -2425,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>20</v>
       </c>
@@ -2439,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>20</v>
       </c>
@@ -2453,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>20</v>
       </c>
@@ -2467,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>20</v>
       </c>
@@ -2481,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>24</v>
       </c>
@@ -2495,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>24</v>
       </c>
@@ -2509,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>24</v>
       </c>
@@ -2523,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>24</v>
       </c>
@@ -2537,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>24</v>
       </c>
@@ -2551,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>24</v>
       </c>
@@ -2565,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>25</v>
       </c>
@@ -2579,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>25</v>
       </c>
@@ -2593,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>25</v>
       </c>
@@ -2607,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>41</v>
       </c>
@@ -2621,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2</v>
       </c>
@@ -2638,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2</v>
       </c>
@@ -2655,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2</v>
       </c>
@@ -2672,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2</v>
       </c>
@@ -2689,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2</v>
       </c>
@@ -2706,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2</v>
       </c>
@@ -2723,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2</v>
       </c>
@@ -2740,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2</v>
       </c>
@@ -2757,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2</v>
       </c>
@@ -2774,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2</v>
       </c>
@@ -2791,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2</v>
       </c>
@@ -2808,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2</v>
       </c>
@@ -2825,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2</v>
       </c>
@@ -2842,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2</v>
       </c>
@@ -2859,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2</v>
       </c>
@@ -2876,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2</v>
       </c>
@@ -2893,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2</v>
       </c>
@@ -2910,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2</v>
       </c>
@@ -2927,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2</v>
       </c>
@@ -2944,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2</v>
       </c>
@@ -2961,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2</v>
       </c>
@@ -2978,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2</v>
       </c>
@@ -2995,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2</v>
       </c>
@@ -3012,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2</v>
       </c>
@@ -3029,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2</v>
       </c>
@@ -3046,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2</v>
       </c>
@@ -3063,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2</v>
       </c>
@@ -3080,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2</v>
       </c>
@@ -3097,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2</v>
       </c>
@@ -3114,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2</v>
       </c>
@@ -3131,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2</v>
       </c>
@@ -3148,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2</v>
       </c>
@@ -3165,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2</v>
       </c>
@@ -3182,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2</v>
       </c>
@@ -3199,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2</v>
       </c>
@@ -3216,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2</v>
       </c>
@@ -3233,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2</v>
       </c>
@@ -3250,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2</v>
       </c>
@@ -3267,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2</v>
       </c>
@@ -3284,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2</v>
       </c>
@@ -3301,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2</v>
       </c>
@@ -3318,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2</v>
       </c>
@@ -3335,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2</v>
       </c>
@@ -3352,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2</v>
       </c>
@@ -3369,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2</v>
       </c>
@@ -3386,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2</v>
       </c>
@@ -3403,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2</v>
       </c>
@@ -3420,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2</v>
       </c>
@@ -3437,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2</v>
       </c>
@@ -3454,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2</v>
       </c>
@@ -3471,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2</v>
       </c>
@@ -3488,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2</v>
       </c>
@@ -3505,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2</v>
       </c>
@@ -3522,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2</v>
       </c>
@@ -3539,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2</v>
       </c>
@@ -3556,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2</v>
       </c>
@@ -3573,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2</v>
       </c>
@@ -3590,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2</v>
       </c>
@@ -3607,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2</v>
       </c>
@@ -3624,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2</v>
       </c>
@@ -3641,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2</v>
       </c>
@@ -3658,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2</v>
       </c>
@@ -3675,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2</v>
       </c>
@@ -3692,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2</v>
       </c>
@@ -3709,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2</v>
       </c>
@@ -3726,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2</v>
       </c>
@@ -3743,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2</v>
       </c>
@@ -3760,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2</v>
       </c>
@@ -3777,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2</v>
       </c>
@@ -3794,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2</v>
       </c>
@@ -3811,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2</v>
       </c>
@@ -3828,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2</v>
       </c>
@@ -3845,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2</v>
       </c>
@@ -3862,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2</v>
       </c>
@@ -3879,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2</v>
       </c>
@@ -3896,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2</v>
       </c>
@@ -3913,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2</v>
       </c>
@@ -3930,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2</v>
       </c>
@@ -3947,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2</v>
       </c>
@@ -3964,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2</v>
       </c>
@@ -3981,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2</v>
       </c>
@@ -3998,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2</v>
       </c>
@@ -4015,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2</v>
       </c>
@@ -4032,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2</v>
       </c>
@@ -4049,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>3</v>
       </c>
@@ -4066,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>3</v>
       </c>
@@ -4083,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>3</v>
       </c>
@@ -4100,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>3</v>
       </c>
@@ -4117,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>3</v>
       </c>
@@ -4134,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>3</v>
       </c>
@@ -4151,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>3</v>
       </c>
@@ -4168,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>3</v>
       </c>
@@ -4185,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>3</v>
       </c>
@@ -4202,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>3</v>
       </c>
@@ -4219,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>3</v>
       </c>
@@ -4236,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>3</v>
       </c>
@@ -4253,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>3</v>
       </c>
@@ -4270,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>3</v>
       </c>
@@ -4287,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>3</v>
       </c>
@@ -4304,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>3</v>
       </c>
@@ -4321,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>3</v>
       </c>
@@ -4338,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>3</v>
       </c>
@@ -4355,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>3</v>
       </c>
@@ -4372,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>3</v>
       </c>
@@ -4389,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>3</v>
       </c>
@@ -4406,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>3</v>
       </c>
@@ -4423,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>3</v>
       </c>
@@ -4440,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>3</v>
       </c>
@@ -4457,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>3</v>
       </c>
@@ -4474,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>3</v>
       </c>
@@ -4491,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>3</v>
       </c>
@@ -4508,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>3</v>
       </c>
@@ -4525,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>3</v>
       </c>
@@ -4542,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>3</v>
       </c>
@@ -4559,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>3</v>
       </c>
@@ -4576,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>3</v>
       </c>
@@ -4593,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>3</v>
       </c>
@@ -4610,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>3</v>
       </c>
@@ -4627,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>3</v>
       </c>
@@ -4644,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>3</v>
       </c>
@@ -4661,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>3</v>
       </c>
@@ -4678,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>3</v>
       </c>
@@ -4695,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>3</v>
       </c>
@@ -4712,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>3</v>
       </c>
@@ -4729,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>3</v>
       </c>
@@ -4746,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>3</v>
       </c>
@@ -4763,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>3</v>
       </c>
@@ -4780,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>3</v>
       </c>
@@ -4797,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>3</v>
       </c>
@@ -4814,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>3</v>
       </c>
@@ -4831,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>3</v>
       </c>
@@ -4848,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>3</v>
       </c>
@@ -4865,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>3</v>
       </c>
@@ -4882,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>3</v>
       </c>
@@ -4899,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>3</v>
       </c>
@@ -4916,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>3</v>
       </c>
@@ -4933,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>3</v>
       </c>
@@ -4950,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>3</v>
       </c>
@@ -4967,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>3</v>
       </c>
@@ -4984,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>3</v>
       </c>
@@ -5001,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>6</v>
       </c>
@@ -5018,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>6</v>
       </c>
@@ -5035,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>6</v>
       </c>
@@ -5052,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>6</v>
       </c>
@@ -5069,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>6</v>
       </c>
@@ -5086,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>6</v>
       </c>
@@ -5103,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>6</v>
       </c>
@@ -5120,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>6</v>
       </c>
@@ -5137,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>6</v>
       </c>
@@ -5154,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>6</v>
       </c>
@@ -5171,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>6</v>
       </c>
@@ -5188,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>6</v>
       </c>
@@ -5205,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>6</v>
       </c>
@@ -5222,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>6</v>
       </c>
@@ -5239,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>6</v>
       </c>
@@ -5256,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>6</v>
       </c>
@@ -5273,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>6</v>
       </c>
@@ -5290,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>6</v>
       </c>
@@ -5307,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>6</v>
       </c>
@@ -5324,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>6</v>
       </c>
@@ -5341,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>6</v>
       </c>
@@ -5358,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>6</v>
       </c>
@@ -5375,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>6</v>
       </c>
@@ -5392,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>6</v>
       </c>
@@ -5409,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>6</v>
       </c>
@@ -5426,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>6</v>
       </c>
@@ -5443,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>6</v>
       </c>
@@ -5460,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>6</v>
       </c>
@@ -5477,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>6</v>
       </c>
@@ -5494,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>6</v>
       </c>
@@ -5511,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>6</v>
       </c>
@@ -5528,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>6</v>
       </c>
@@ -5545,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>6</v>
       </c>
@@ -5562,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>6</v>
       </c>
@@ -5579,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>6</v>
       </c>
@@ -5596,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>9</v>
       </c>
@@ -5613,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>9</v>
       </c>
@@ -5630,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>9</v>
       </c>
@@ -5647,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>9</v>
       </c>
@@ -5664,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>9</v>
       </c>
@@ -5681,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>9</v>
       </c>
@@ -5698,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>9</v>
       </c>
@@ -5715,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>9</v>
       </c>
@@ -5732,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>9</v>
       </c>
@@ -5749,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>9</v>
       </c>
@@ -5766,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>9</v>
       </c>
@@ -5783,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>9</v>
       </c>
@@ -5800,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>9</v>
       </c>
@@ -5817,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>9</v>
       </c>
@@ -5834,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>9</v>
       </c>
@@ -5851,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>9</v>
       </c>
@@ -5868,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>9</v>
       </c>
@@ -5885,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>9</v>
       </c>
@@ -5902,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>9</v>
       </c>
@@ -5919,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>9</v>
       </c>
@@ -5936,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>20</v>
       </c>
@@ -5953,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>20</v>
       </c>
@@ -5970,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>20</v>
       </c>
@@ -5987,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>20</v>
       </c>
@@ -6004,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>20</v>
       </c>
@@ -6021,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>20</v>
       </c>
@@ -6038,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>20</v>
       </c>
@@ -6055,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>20</v>
       </c>
@@ -6072,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>20</v>
       </c>
@@ -6089,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>20</v>
       </c>
@@ -6106,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>24</v>
       </c>
@@ -6123,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>24</v>
       </c>
@@ -6140,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>24</v>
       </c>
@@ -6157,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>24</v>
       </c>
@@ -6174,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>25</v>
       </c>
@@ -6191,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2</v>
       </c>
@@ -6211,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2</v>
       </c>
@@ -6231,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2</v>
       </c>
@@ -6251,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2</v>
       </c>
@@ -6271,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2</v>
       </c>
@@ -6291,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2</v>
       </c>
@@ -6311,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2</v>
       </c>
@@ -6331,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2</v>
       </c>
@@ -6351,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2</v>
       </c>
@@ -6371,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2</v>
       </c>
@@ -6391,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2</v>
       </c>
@@ -6411,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2</v>
       </c>
@@ -6431,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2</v>
       </c>
@@ -6451,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2</v>
       </c>
@@ -6471,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>2</v>
       </c>
@@ -6491,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2</v>
       </c>
@@ -6511,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2</v>
       </c>
@@ -6531,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2</v>
       </c>
@@ -6551,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2</v>
       </c>
@@ -6571,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2</v>
       </c>
@@ -6591,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2</v>
       </c>
@@ -6611,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2</v>
       </c>
@@ -6631,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2</v>
       </c>
@@ -6651,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2</v>
       </c>
@@ -6671,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2</v>
       </c>
@@ -6691,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2</v>
       </c>
@@ -6711,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2</v>
       </c>
@@ -6731,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2</v>
       </c>
@@ -6751,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2</v>
       </c>
@@ -6771,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2</v>
       </c>
@@ -6791,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2</v>
       </c>
@@ -6811,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2</v>
       </c>
@@ -6831,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2</v>
       </c>
@@ -6851,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>2</v>
       </c>
@@ -6871,7 +7060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2</v>
       </c>
@@ -6891,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>2</v>
       </c>
@@ -6911,7 +7100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2</v>
       </c>
@@ -6931,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>2</v>
       </c>
@@ -6951,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2</v>
       </c>
@@ -6971,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2</v>
       </c>
@@ -6991,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2</v>
       </c>
@@ -7011,7 +7200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2</v>
       </c>
@@ -7031,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2</v>
       </c>
@@ -7051,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2</v>
       </c>
@@ -7071,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>2</v>
       </c>
@@ -7091,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>2</v>
       </c>
@@ -7111,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>2</v>
       </c>
@@ -7131,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2</v>
       </c>
@@ -7151,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2</v>
       </c>
@@ -7171,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>2</v>
       </c>
@@ -7191,7 +7380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2</v>
       </c>
@@ -7211,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2</v>
       </c>
@@ -7231,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2</v>
       </c>
@@ -7251,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2</v>
       </c>
@@ -7271,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>2</v>
       </c>
@@ -7291,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2</v>
       </c>
@@ -7311,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2</v>
       </c>
@@ -7331,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2</v>
       </c>
@@ -7351,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2</v>
       </c>
@@ -7371,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2</v>
       </c>
@@ -7391,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2</v>
       </c>
@@ -7411,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>2</v>
       </c>
@@ -7431,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>2</v>
       </c>
@@ -7451,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>2</v>
       </c>
@@ -7471,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>2</v>
       </c>
@@ -7491,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2</v>
       </c>
@@ -7511,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>2</v>
       </c>
@@ -7531,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>2</v>
       </c>
@@ -7551,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>2</v>
       </c>
@@ -7571,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>2</v>
       </c>
@@ -7591,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>2</v>
       </c>
@@ -7611,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>2</v>
       </c>
@@ -7631,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>2</v>
       </c>
@@ -7651,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>2</v>
       </c>
@@ -7671,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>2</v>
       </c>
@@ -7691,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>2</v>
       </c>
@@ -7711,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>2</v>
       </c>
@@ -7731,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>2</v>
       </c>
@@ -7751,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2</v>
       </c>
@@ -7771,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2</v>
       </c>
@@ -7791,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>2</v>
       </c>
@@ -7811,7 +8000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>2</v>
       </c>
@@ -7831,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>2</v>
       </c>
@@ -7851,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>2</v>
       </c>
@@ -7871,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>2</v>
       </c>
@@ -7891,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>2</v>
       </c>
@@ -7911,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>2</v>
       </c>
@@ -7931,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>2</v>
       </c>
@@ -7951,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>2</v>
       </c>
@@ -7971,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>2</v>
       </c>
@@ -7991,7 +8180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>2</v>
       </c>
@@ -8011,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>2</v>
       </c>
@@ -8031,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>2</v>
       </c>
@@ -8051,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>2</v>
       </c>
@@ -8071,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>2</v>
       </c>
@@ -8091,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>2</v>
       </c>
@@ -8111,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>2</v>
       </c>
@@ -8131,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>2</v>
       </c>
@@ -8151,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>2</v>
       </c>
@@ -8171,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>2</v>
       </c>
@@ -8191,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>2</v>
       </c>
@@ -8211,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>2</v>
       </c>
@@ -8231,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>2</v>
       </c>
@@ -8251,7 +8440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>2</v>
       </c>
@@ -8271,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>2</v>
       </c>
@@ -8291,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>2</v>
       </c>
@@ -8311,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>2</v>
       </c>
@@ -8331,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>2</v>
       </c>
@@ -8351,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>2</v>
       </c>
@@ -8371,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>2</v>
       </c>
@@ -8391,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>2</v>
       </c>
@@ -8411,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>2</v>
       </c>
@@ -8431,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>2</v>
       </c>
@@ -8451,7 +8640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>2</v>
       </c>
@@ -8471,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>2</v>
       </c>
@@ -8491,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>2</v>
       </c>
@@ -8511,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>2</v>
       </c>
@@ -8531,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>2</v>
       </c>
@@ -8551,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>2</v>
       </c>
@@ -8571,7 +8760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>2</v>
       </c>
@@ -8591,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>2</v>
       </c>
@@ -8611,7 +8800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>2</v>
       </c>
@@ -8631,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>2</v>
       </c>
@@ -8651,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>2</v>
       </c>
@@ -8671,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>2</v>
       </c>
@@ -8691,7 +8880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>2</v>
       </c>
@@ -8711,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>3</v>
       </c>
@@ -8731,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>3</v>
       </c>
@@ -8751,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>3</v>
       </c>
@@ -8771,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>3</v>
       </c>
@@ -8791,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>3</v>
       </c>
@@ -8811,7 +9000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>3</v>
       </c>
@@ -8831,7 +9020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>3</v>
       </c>
@@ -8851,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>3</v>
       </c>
@@ -8871,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>3</v>
       </c>
@@ -8891,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>3</v>
       </c>
@@ -8911,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>3</v>
       </c>
@@ -8931,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>3</v>
       </c>
@@ -8951,7 +9140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>3</v>
       </c>
@@ -8971,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>3</v>
       </c>
@@ -8991,7 +9180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>3</v>
       </c>
@@ -9011,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>3</v>
       </c>
@@ -9031,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>3</v>
       </c>
@@ -9051,7 +9240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>3</v>
       </c>
@@ -9071,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>3</v>
       </c>
@@ -9091,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>3</v>
       </c>
@@ -9111,7 +9300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>3</v>
       </c>
@@ -9131,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>3</v>
       </c>
@@ -9151,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>3</v>
       </c>
@@ -9171,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>3</v>
       </c>
@@ -9191,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>3</v>
       </c>
@@ -9211,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>3</v>
       </c>
@@ -9231,7 +9420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>3</v>
       </c>
@@ -9251,7 +9440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>3</v>
       </c>
@@ -9271,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>3</v>
       </c>
@@ -9291,7 +9480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>3</v>
       </c>
@@ -9311,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>3</v>
       </c>
@@ -9331,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>3</v>
       </c>
@@ -9351,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>3</v>
       </c>
@@ -9371,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>3</v>
       </c>
@@ -9391,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>3</v>
       </c>
@@ -9411,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>3</v>
       </c>
@@ -9431,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>3</v>
       </c>
@@ -9451,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>3</v>
       </c>
@@ -9471,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>3</v>
       </c>
@@ -9491,7 +9680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>3</v>
       </c>
@@ -9511,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>3</v>
       </c>
@@ -9531,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>3</v>
       </c>
@@ -9551,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>3</v>
       </c>
@@ -9571,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>3</v>
       </c>
@@ -9591,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>3</v>
       </c>
@@ -9611,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>3</v>
       </c>
@@ -9631,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>3</v>
       </c>
@@ -9651,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>3</v>
       </c>
@@ -9671,7 +9860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>3</v>
       </c>
@@ -9691,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>3</v>
       </c>
@@ -9711,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>3</v>
       </c>
@@ -9731,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>3</v>
       </c>
@@ -9751,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>3</v>
       </c>
@@ -9771,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>3</v>
       </c>
@@ -9791,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>3</v>
       </c>
@@ -9811,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>3</v>
       </c>
@@ -9831,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>3</v>
       </c>
@@ -9851,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>3</v>
       </c>
@@ -9871,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>3</v>
       </c>
@@ -9891,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>3</v>
       </c>
@@ -9911,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>3</v>
       </c>
@@ -9931,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>3</v>
       </c>
@@ -9951,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>3</v>
       </c>
@@ -9971,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>3</v>
       </c>
@@ -9991,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>3</v>
       </c>
@@ -10011,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>3</v>
       </c>
@@ -10031,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>3</v>
       </c>
@@ -10051,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>3</v>
       </c>
@@ -10071,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>3</v>
       </c>
@@ -10091,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>3</v>
       </c>
@@ -10111,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>6</v>
       </c>
@@ -10131,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>6</v>
       </c>
@@ -10151,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>6</v>
       </c>
@@ -10171,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>6</v>
       </c>
@@ -10191,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>6</v>
       </c>
@@ -10211,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>6</v>
       </c>
@@ -10231,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>6</v>
       </c>
@@ -10251,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>6</v>
       </c>
@@ -10271,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>6</v>
       </c>
@@ -10291,7 +10480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>6</v>
       </c>
@@ -10311,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:6">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>6</v>
       </c>
@@ -10331,7 +10520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>6</v>
       </c>
@@ -10351,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>6</v>
       </c>
@@ -10371,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>6</v>
       </c>
@@ -10391,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>6</v>
       </c>
@@ -10411,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>6</v>
       </c>
@@ -10431,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:6">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>6</v>
       </c>
@@ -10451,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>6</v>
       </c>
@@ -10471,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>6</v>
       </c>
@@ -10491,7 +10680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>6</v>
       </c>
@@ -10511,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>6</v>
       </c>
@@ -10531,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>6</v>
       </c>
@@ -10551,7 +10740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>6</v>
       </c>
@@ -10571,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>6</v>
       </c>
@@ -10591,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>6</v>
       </c>
@@ -10611,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:6">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>6</v>
       </c>
@@ -10631,7 +10820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>6</v>
       </c>
@@ -10651,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:6">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>6</v>
       </c>
@@ -10671,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:6">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>6</v>
       </c>
@@ -10691,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:6">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>6</v>
       </c>
@@ -10711,7 +10900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:6">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>6</v>
       </c>
@@ -10731,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:6">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>6</v>
       </c>
@@ -10751,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:6">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>6</v>
       </c>
@@ -10771,7 +10960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:6">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>6</v>
       </c>
@@ -10791,7 +10980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:6">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>6</v>
       </c>
@@ -10811,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:6">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>9</v>
       </c>
@@ -10831,7 +11020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:6">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>9</v>
       </c>
@@ -10851,7 +11040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:6">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>9</v>
       </c>
@@ -10871,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:6">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>9</v>
       </c>
@@ -10891,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:6">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>9</v>
       </c>
@@ -10911,7 +11100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:6">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>9</v>
       </c>
@@ -10931,7 +11120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:6">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>9</v>
       </c>
@@ -10951,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:6">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>9</v>
       </c>
@@ -10971,7 +11160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>9</v>
       </c>
@@ -10991,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>9</v>
       </c>
@@ -11011,7 +11200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>9</v>
       </c>
@@ -11031,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>9</v>
       </c>
@@ -11051,7 +11240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>9</v>
       </c>
@@ -11071,7 +11260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>9</v>
       </c>
@@ -11091,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>9</v>
       </c>
@@ -11111,7 +11300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>20</v>
       </c>
@@ -11131,7 +11320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>20</v>
       </c>
@@ -11151,7 +11340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>20</v>
       </c>
@@ -11171,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>20</v>
       </c>
@@ -11191,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>20</v>
       </c>
@@ -11211,7 +11400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>24</v>
       </c>
@@ -11231,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>2</v>
       </c>
@@ -11254,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>2</v>
       </c>
@@ -11277,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>2</v>
       </c>
@@ -11300,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>2</v>
       </c>
@@ -11323,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>2</v>
       </c>
@@ -11346,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>2</v>
       </c>
@@ -11369,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>2</v>
       </c>
@@ -11392,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>2</v>
       </c>
@@ -11415,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>2</v>
       </c>
@@ -11438,7 +11627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>2</v>
       </c>
@@ -11461,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>2</v>
       </c>
@@ -11484,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>2</v>
       </c>
@@ -11507,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>2</v>
       </c>
@@ -11530,7 +11719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>2</v>
       </c>
@@ -11553,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:7">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>2</v>
       </c>
@@ -11576,7 +11765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>2</v>
       </c>
@@ -11599,7 +11788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>2</v>
       </c>
@@ -11622,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>2</v>
       </c>
@@ -11645,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:7">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>2</v>
       </c>
@@ -11668,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:7">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>2</v>
       </c>
@@ -11691,7 +11880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:7">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>2</v>
       </c>
@@ -11714,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:7">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>2</v>
       </c>
@@ -11737,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:7">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>2</v>
       </c>
@@ -11760,7 +11949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>2</v>
       </c>
@@ -11783,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:7">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>2</v>
       </c>
@@ -11806,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:7">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>2</v>
       </c>
@@ -11829,7 +12018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:7">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>2</v>
       </c>
@@ -11852,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>2</v>
       </c>
@@ -11875,7 +12064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>2</v>
       </c>
@@ -11898,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>2</v>
       </c>
@@ -11921,7 +12110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>2</v>
       </c>
@@ -11944,7 +12133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>2</v>
       </c>
@@ -11967,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>2</v>
       </c>
@@ -11990,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>2</v>
       </c>
@@ -12013,7 +12202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>2</v>
       </c>
@@ -12036,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>2</v>
       </c>
@@ -12059,7 +12248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>2</v>
       </c>
@@ -12082,7 +12271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>2</v>
       </c>
@@ -12105,7 +12294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>2</v>
       </c>
@@ -12128,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>2</v>
       </c>
@@ -12151,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>2</v>
       </c>
@@ -12174,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>2</v>
       </c>
@@ -12197,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>2</v>
       </c>
@@ -12220,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>2</v>
       </c>
@@ -12243,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>2</v>
       </c>
@@ -12266,7 +12455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>2</v>
       </c>
@@ -12289,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>2</v>
       </c>
@@ -12312,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>2</v>
       </c>
@@ -12335,7 +12524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>2</v>
       </c>
@@ -12358,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>2</v>
       </c>
@@ -12381,7 +12570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>2</v>
       </c>
@@ -12404,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:7">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>2</v>
       </c>
@@ -12427,7 +12616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:7">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>2</v>
       </c>
@@ -12450,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:7">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>2</v>
       </c>
@@ -12473,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:7">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>2</v>
       </c>
@@ -12496,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:7">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>2</v>
       </c>
@@ -12519,7 +12708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:7">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>2</v>
       </c>
@@ -12542,7 +12731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:7">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>2</v>
       </c>
@@ -12565,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:7">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>2</v>
       </c>
@@ -12588,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:7">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>2</v>
       </c>
@@ -12611,7 +12800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:7">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>2</v>
       </c>
@@ -12634,7 +12823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:7">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>2</v>
       </c>
@@ -12657,7 +12846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:7">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>2</v>
       </c>
@@ -12680,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:7">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>2</v>
       </c>
@@ -12703,7 +12892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:7">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>2</v>
       </c>
@@ -12726,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:7">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>2</v>
       </c>
@@ -12749,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:7">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>2</v>
       </c>
@@ -12772,7 +12961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:7">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>2</v>
       </c>
@@ -12795,7 +12984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:7">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>2</v>
       </c>
@@ -12818,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:7">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>2</v>
       </c>
@@ -12841,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:7">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>2</v>
       </c>
@@ -12864,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:7">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>2</v>
       </c>
@@ -12887,7 +13076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:7">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>2</v>
       </c>
@@ -12910,7 +13099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:7">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>2</v>
       </c>
@@ -12933,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:7">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>2</v>
       </c>
@@ -12956,7 +13145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:7">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>2</v>
       </c>
@@ -12979,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:7">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>2</v>
       </c>
@@ -13002,7 +13191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:7">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>2</v>
       </c>
@@ -13025,7 +13214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:7">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>2</v>
       </c>
@@ -13048,7 +13237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:7">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>2</v>
       </c>
@@ -13071,7 +13260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:7">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>2</v>
       </c>
@@ -13094,7 +13283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:7">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>2</v>
       </c>
@@ -13117,7 +13306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:7">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>2</v>
       </c>
@@ -13140,7 +13329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:7">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>2</v>
       </c>
@@ -13163,7 +13352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:7">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>2</v>
       </c>
@@ -13186,7 +13375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:7">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>2</v>
       </c>
@@ -13209,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:7">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>2</v>
       </c>
@@ -13232,7 +13421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:7">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>2</v>
       </c>
@@ -13255,7 +13444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:7">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>2</v>
       </c>
@@ -13278,7 +13467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:7">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>2</v>
       </c>
@@ -13301,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:7">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>2</v>
       </c>
@@ -13324,7 +13513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:7">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>2</v>
       </c>
@@ -13347,7 +13536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:7">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>2</v>
       </c>
@@ -13370,7 +13559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:7">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>2</v>
       </c>
@@ -13393,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:7">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>2</v>
       </c>
@@ -13416,7 +13605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:7">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>2</v>
       </c>
@@ -13439,7 +13628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:7">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>2</v>
       </c>
@@ -13462,7 +13651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:7">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>2</v>
       </c>
@@ -13485,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:7">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>2</v>
       </c>
@@ -13508,7 +13697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:7">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>2</v>
       </c>
@@ -13531,7 +13720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:7">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>2</v>
       </c>
@@ -13554,7 +13743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:7">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>2</v>
       </c>
@@ -13577,7 +13766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:7">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>2</v>
       </c>
@@ -13600,7 +13789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:7">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>2</v>
       </c>
@@ -13623,7 +13812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:7">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>2</v>
       </c>
@@ -13646,7 +13835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:7">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>2</v>
       </c>
@@ -13669,7 +13858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:7">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>2</v>
       </c>
@@ -13692,7 +13881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:7">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>2</v>
       </c>
@@ -13715,7 +13904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:7">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>2</v>
       </c>
@@ -13738,7 +13927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:7">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>2</v>
       </c>
@@ -13761,7 +13950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:7">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>2</v>
       </c>
@@ -13784,7 +13973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:7">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>2</v>
       </c>
@@ -13807,7 +13996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:7">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>2</v>
       </c>
@@ -13830,7 +14019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:7">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>2</v>
       </c>
@@ -13853,7 +14042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:7">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>2</v>
       </c>
@@ -13876,7 +14065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:7">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>2</v>
       </c>
@@ -13899,7 +14088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:7">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>2</v>
       </c>
@@ -13922,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:7">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>2</v>
       </c>
@@ -13945,7 +14134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:7">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>2</v>
       </c>
@@ -13968,7 +14157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:7">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>2</v>
       </c>
@@ -13991,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:7">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>2</v>
       </c>
@@ -14014,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:7">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>2</v>
       </c>
@@ -14037,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:7">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>2</v>
       </c>
@@ -14060,7 +14249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:7">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>2</v>
       </c>
@@ -14083,7 +14272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:7">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>2</v>
       </c>
@@ -14106,7 +14295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:7">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>2</v>
       </c>
@@ -14129,7 +14318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:7">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>3</v>
       </c>
@@ -14152,7 +14341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:7">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>3</v>
       </c>
@@ -14175,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:7">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>3</v>
       </c>
@@ -14198,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:7">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>3</v>
       </c>
@@ -14221,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:7">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>3</v>
       </c>
@@ -14244,7 +14433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:7">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>3</v>
       </c>
@@ -14267,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:7">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>3</v>
       </c>
@@ -14290,7 +14479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:7">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>3</v>
       </c>
@@ -14313,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:7">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>3</v>
       </c>
@@ -14336,7 +14525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:7">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>3</v>
       </c>
@@ -14359,7 +14548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:7">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>3</v>
       </c>
@@ -14382,7 +14571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:7">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>3</v>
       </c>
@@ -14405,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:7">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>3</v>
       </c>
@@ -14428,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:7">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>3</v>
       </c>
@@ -14451,7 +14640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:7">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>3</v>
       </c>
@@ -14474,7 +14663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:7">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>3</v>
       </c>
@@ -14497,7 +14686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:7">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>3</v>
       </c>
@@ -14520,7 +14709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:7">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>3</v>
       </c>
@@ -14543,7 +14732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:7">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>3</v>
       </c>
@@ -14566,7 +14755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:7">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>3</v>
       </c>
@@ -14589,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:7">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>3</v>
       </c>
@@ -14612,7 +14801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:7">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>3</v>
       </c>
@@ -14635,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:7">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>3</v>
       </c>
@@ -14658,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:7">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>3</v>
       </c>
@@ -14681,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:7">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>3</v>
       </c>
@@ -14704,7 +14893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:7">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>3</v>
       </c>
@@ -14727,7 +14916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:7">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>3</v>
       </c>
@@ -14750,7 +14939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:7">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>3</v>
       </c>
@@ -14773,7 +14962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:7">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>3</v>
       </c>
@@ -14796,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:7">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>3</v>
       </c>
@@ -14819,7 +15008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:7">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>3</v>
       </c>
@@ -14842,7 +15031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:7">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>3</v>
       </c>
@@ -14865,7 +15054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:7">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>3</v>
       </c>
@@ -14888,7 +15077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:7">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>3</v>
       </c>
@@ -14911,7 +15100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:7">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>3</v>
       </c>
@@ -14934,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:7">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>3</v>
       </c>
@@ -14957,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:7">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>3</v>
       </c>
@@ -14980,7 +15169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:7">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>3</v>
       </c>
@@ -15003,7 +15192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:7">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>3</v>
       </c>
@@ -15026,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:7">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>3</v>
       </c>
@@ -15049,7 +15238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:7">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>3</v>
       </c>
@@ -15072,7 +15261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:7">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>3</v>
       </c>
@@ -15095,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:7">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>3</v>
       </c>
@@ -15118,7 +15307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:7">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>3</v>
       </c>
@@ -15141,7 +15330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:7">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>3</v>
       </c>
@@ -15164,7 +15353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:7">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>3</v>
       </c>
@@ -15187,7 +15376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:7">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>3</v>
       </c>
@@ -15210,7 +15399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:7">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>3</v>
       </c>
@@ -15233,7 +15422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:7">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>3</v>
       </c>
@@ -15256,7 +15445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:7">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>3</v>
       </c>
@@ -15279,7 +15468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:7">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>3</v>
       </c>
@@ -15302,7 +15491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:7">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>3</v>
       </c>
@@ -15325,7 +15514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:7">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>3</v>
       </c>
@@ -15348,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:7">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>3</v>
       </c>
@@ -15371,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:7">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>3</v>
       </c>
@@ -15394,7 +15583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:7">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>3</v>
       </c>
@@ -15417,7 +15606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:7">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>6</v>
       </c>
@@ -15440,7 +15629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:7">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>6</v>
       </c>
@@ -15463,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:7">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>6</v>
       </c>
@@ -15486,7 +15675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:7">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>6</v>
       </c>
@@ -15509,7 +15698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:7">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>6</v>
       </c>
@@ -15532,7 +15721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:7">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>6</v>
       </c>
@@ -15555,7 +15744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:7">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>6</v>
       </c>
@@ -15578,7 +15767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:7">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>6</v>
       </c>
@@ -15601,7 +15790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:7">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>6</v>
       </c>
@@ -15624,7 +15813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:7">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>6</v>
       </c>
@@ -15647,7 +15836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:7">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>6</v>
       </c>
@@ -15670,7 +15859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:7">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>6</v>
       </c>
@@ -15693,7 +15882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:7">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>6</v>
       </c>
@@ -15716,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:8">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>6</v>
       </c>
@@ -15739,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:8">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>6</v>
       </c>
@@ -15762,7 +15951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:8">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>6</v>
       </c>
@@ -15785,7 +15974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:8">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>6</v>
       </c>
@@ -15808,7 +15997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:8">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>6</v>
       </c>
@@ -15831,7 +16020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:8">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>6</v>
       </c>
@@ -15854,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:8">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>6</v>
       </c>
@@ -15877,7 +16066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:8">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>6</v>
       </c>
@@ -15900,7 +16089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:8">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>9</v>
       </c>
@@ -15923,7 +16112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:8">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>9</v>
       </c>
@@ -15946,7 +16135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:8">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>9</v>
       </c>
@@ -15969,7 +16158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:8">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>9</v>
       </c>
@@ -15992,7 +16181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:8">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>9</v>
       </c>
@@ -16015,7 +16204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:8">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>9</v>
       </c>
@@ -16038,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:8">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>20</v>
       </c>
@@ -16061,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>2</v>
       </c>
@@ -16087,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:8">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>2</v>
       </c>
@@ -16113,7 +16302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:8">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>2</v>
       </c>
@@ -16139,7 +16328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:8">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>2</v>
       </c>
@@ -16165,7 +16354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:8">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>2</v>
       </c>
@@ -16191,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>2</v>
       </c>
@@ -16217,7 +16406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>2</v>
       </c>
@@ -16243,7 +16432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>2</v>
       </c>
@@ -16269,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>2</v>
       </c>
@@ -16295,7 +16484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>2</v>
       </c>
@@ -16321,7 +16510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>2</v>
       </c>
@@ -16347,7 +16536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>2</v>
       </c>
@@ -16373,7 +16562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>2</v>
       </c>
@@ -16399,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>2</v>
       </c>
@@ -16425,7 +16614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:8">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>2</v>
       </c>
@@ -16451,7 +16640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:8">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>2</v>
       </c>
@@ -16477,7 +16666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:8">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>2</v>
       </c>
@@ -16503,7 +16692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>2</v>
       </c>
@@ -16529,7 +16718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:8">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>2</v>
       </c>
@@ -16555,7 +16744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>2</v>
       </c>
@@ -16581,7 +16770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>2</v>
       </c>
@@ -16607,7 +16796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>2</v>
       </c>
@@ -16633,7 +16822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:8">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>2</v>
       </c>
@@ -16659,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>2</v>
       </c>
@@ -16685,7 +16874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:8">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>2</v>
       </c>
@@ -16711,7 +16900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:8">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>2</v>
       </c>
@@ -16737,7 +16926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:8">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>2</v>
       </c>
@@ -16763,7 +16952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:8">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>2</v>
       </c>
@@ -16789,7 +16978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:8">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>2</v>
       </c>
@@ -16815,7 +17004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:8">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>2</v>
       </c>
@@ -16841,7 +17030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:8">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>2</v>
       </c>
@@ -16867,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:8">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>2</v>
       </c>
@@ -16893,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:8">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>2</v>
       </c>
@@ -16919,7 +17108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:8">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>2</v>
       </c>
@@ -16945,7 +17134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:8">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>2</v>
       </c>
@@ -16971,7 +17160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:8">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>2</v>
       </c>
@@ -16997,7 +17186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:8">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>2</v>
       </c>
@@ -17023,7 +17212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:8">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>2</v>
       </c>
@@ -17049,7 +17238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:8">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>2</v>
       </c>
@@ -17075,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:8">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>2</v>
       </c>
@@ -17101,7 +17290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:8">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>2</v>
       </c>
@@ -17127,7 +17316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:8">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>2</v>
       </c>
@@ -17153,7 +17342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:8">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>2</v>
       </c>
@@ -17179,7 +17368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:8">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>2</v>
       </c>
@@ -17205,7 +17394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:8">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>2</v>
       </c>
@@ -17231,7 +17420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:8">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>2</v>
       </c>
@@ -17257,7 +17446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:8">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>2</v>
       </c>
@@ -17283,7 +17472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:8">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>2</v>
       </c>
@@ -17309,7 +17498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:8">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>2</v>
       </c>
@@ -17335,7 +17524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:8">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>2</v>
       </c>
@@ -17361,7 +17550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:8">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>2</v>
       </c>
@@ -17387,7 +17576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:8">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>2</v>
       </c>
@@ -17413,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:8">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>2</v>
       </c>
@@ -17439,7 +17628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:8">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>2</v>
       </c>
@@ -17465,7 +17654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:8">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>2</v>
       </c>
@@ -17491,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:8">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>2</v>
       </c>
@@ -17517,7 +17706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:8">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>2</v>
       </c>
@@ -17543,7 +17732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:8">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>2</v>
       </c>
@@ -17569,7 +17758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:8">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>2</v>
       </c>
@@ -17595,7 +17784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:8">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>2</v>
       </c>
@@ -17621,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:8">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>2</v>
       </c>
@@ -17647,7 +17836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:8">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>2</v>
       </c>
@@ -17673,7 +17862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:8">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>2</v>
       </c>
@@ -17699,7 +17888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:8">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>2</v>
       </c>
@@ -17725,7 +17914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:8">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>2</v>
       </c>
@@ -17751,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:8">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>2</v>
       </c>
@@ -17777,7 +17966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:8">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>2</v>
       </c>
@@ -17803,7 +17992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:8">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>2</v>
       </c>
@@ -17829,7 +18018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:8">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>2</v>
       </c>
@@ -17855,7 +18044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:8">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>2</v>
       </c>
@@ -17881,7 +18070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:8">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>2</v>
       </c>
@@ -17907,7 +18096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:8">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>2</v>
       </c>
@@ -17933,7 +18122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:8">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>2</v>
       </c>
@@ -17959,7 +18148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:8">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>2</v>
       </c>
@@ -17985,7 +18174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:8">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>2</v>
       </c>
@@ -18011,7 +18200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:8">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>2</v>
       </c>
@@ -18037,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:8">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>2</v>
       </c>
@@ -18063,7 +18252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:8">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>2</v>
       </c>
@@ -18089,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:8">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>2</v>
       </c>
@@ -18115,7 +18304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:8">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>2</v>
       </c>
@@ -18141,7 +18330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:8">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>2</v>
       </c>
@@ -18167,7 +18356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:8">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>2</v>
       </c>
@@ -18193,7 +18382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:8">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>2</v>
       </c>
@@ -18219,7 +18408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:8">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>2</v>
       </c>
@@ -18245,7 +18434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:8">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>3</v>
       </c>
@@ -18271,7 +18460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:8">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>3</v>
       </c>
@@ -18297,7 +18486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:8">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>3</v>
       </c>
@@ -18323,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:8">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>3</v>
       </c>
@@ -18349,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:8">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>3</v>
       </c>
@@ -18375,7 +18564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:8">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>3</v>
       </c>
@@ -18401,7 +18590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:8">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>3</v>
       </c>
@@ -18427,7 +18616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:8">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>3</v>
       </c>
@@ -18453,7 +18642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:8">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>3</v>
       </c>
@@ -18479,7 +18668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:8">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>3</v>
       </c>
@@ -18505,7 +18694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:8">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>3</v>
       </c>
@@ -18531,7 +18720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:8">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>3</v>
       </c>
@@ -18557,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:8">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>3</v>
       </c>
@@ -18583,7 +18772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:8">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>3</v>
       </c>
@@ -18609,7 +18798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:8">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>3</v>
       </c>
@@ -18635,7 +18824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:8">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>3</v>
       </c>
@@ -18661,7 +18850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:8">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>3</v>
       </c>
@@ -18687,7 +18876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:8">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>3</v>
       </c>
@@ -18713,7 +18902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:8">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>3</v>
       </c>
@@ -18739,7 +18928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:8">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>3</v>
       </c>
@@ -18765,7 +18954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:8">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>3</v>
       </c>
@@ -18791,7 +18980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:8">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>3</v>
       </c>
@@ -18817,7 +19006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:8">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>3</v>
       </c>
@@ -18843,7 +19032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:8">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>3</v>
       </c>
@@ -18869,7 +19058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:8">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>3</v>
       </c>
@@ -18895,7 +19084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:8">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>3</v>
       </c>
@@ -18921,7 +19110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:8">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>3</v>
       </c>
@@ -18947,7 +19136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:8">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>3</v>
       </c>
@@ -18973,7 +19162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:8">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>6</v>
       </c>
@@ -18999,7 +19188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:9">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>6</v>
       </c>
@@ -19025,7 +19214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:9">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>6</v>
       </c>
@@ -19051,7 +19240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:9">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>6</v>
       </c>
@@ -19077,7 +19266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:9">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>6</v>
       </c>
@@ -19103,7 +19292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:9">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>6</v>
       </c>
@@ -19129,7 +19318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:9">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>6</v>
       </c>
@@ -19155,7 +19344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:9">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>9</v>
       </c>
@@ -19181,7 +19370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:9">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>2</v>
       </c>
@@ -19210,7 +19399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:9">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>2</v>
       </c>
@@ -19239,7 +19428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:9">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>2</v>
       </c>
@@ -19268,7 +19457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:9">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>2</v>
       </c>
@@ -19297,7 +19486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:9">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>2</v>
       </c>
@@ -19326,7 +19515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:9">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>2</v>
       </c>
@@ -19355,7 +19544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:9">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>2</v>
       </c>
@@ -19384,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:9">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>2</v>
       </c>
@@ -19413,7 +19602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:9">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>2</v>
       </c>
@@ -19442,7 +19631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:9">
+    <row r="977" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>2</v>
       </c>
@@ -19471,7 +19660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:9">
+    <row r="978" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>2</v>
       </c>
@@ -19500,7 +19689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:9">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>2</v>
       </c>
@@ -19529,7 +19718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:9">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>2</v>
       </c>
@@ -19558,7 +19747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:9">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>2</v>
       </c>
@@ -19587,7 +19776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:9">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>2</v>
       </c>
@@ -19616,7 +19805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:9">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>2</v>
       </c>
@@ -19645,7 +19834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:9">
+    <row r="984" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>2</v>
       </c>
@@ -19674,7 +19863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:9">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>2</v>
       </c>
@@ -19703,7 +19892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:9">
+    <row r="986" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>2</v>
       </c>
@@ -19732,7 +19921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:9">
+    <row r="987" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>2</v>
       </c>
@@ -19761,7 +19950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:9">
+    <row r="988" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>2</v>
       </c>
@@ -19790,7 +19979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:9">
+    <row r="989" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>2</v>
       </c>
@@ -19819,7 +20008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="990" spans="1:9">
+    <row r="990" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>2</v>
       </c>
@@ -19848,7 +20037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:9">
+    <row r="991" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>2</v>
       </c>
@@ -19877,7 +20066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:9">
+    <row r="992" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>2</v>
       </c>
@@ -19906,7 +20095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:9">
+    <row r="993" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>2</v>
       </c>
@@ -19935,7 +20124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:9">
+    <row r="994" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>2</v>
       </c>
@@ -19964,7 +20153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:9">
+    <row r="995" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>2</v>
       </c>
@@ -19993,7 +20182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:9">
+    <row r="996" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>2</v>
       </c>
@@ -20022,7 +20211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:9">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>2</v>
       </c>
@@ -20051,7 +20240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:9">
+    <row r="998" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>2</v>
       </c>
@@ -20080,7 +20269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:9">
+    <row r="999" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>2</v>
       </c>
@@ -20109,7 +20298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:9">
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>2</v>
       </c>
@@ -20138,7 +20327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1001" spans="1:9">
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>2</v>
       </c>
@@ -20167,7 +20356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1002" spans="1:9">
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>2</v>
       </c>
@@ -20196,7 +20385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:9">
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>2</v>
       </c>
@@ -20225,7 +20414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1004" spans="1:9">
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>3</v>
       </c>
@@ -20254,7 +20443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:9">
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>3</v>
       </c>
@@ -20283,7 +20472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1006" spans="1:9">
+    <row r="1006" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>3</v>
       </c>
@@ -20312,7 +20501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:9">
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>3</v>
       </c>
@@ -20341,7 +20530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:9">
+    <row r="1008" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>3</v>
       </c>
@@ -20370,7 +20559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1009" spans="1:11">
+    <row r="1009" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>3</v>
       </c>
@@ -20399,7 +20588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:11">
+    <row r="1010" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>3</v>
       </c>
@@ -20428,7 +20617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:11">
+    <row r="1011" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>3</v>
       </c>
@@ -20457,7 +20646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1012" spans="1:11">
+    <row r="1012" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>6</v>
       </c>
@@ -20486,7 +20675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1013" spans="1:11">
+    <row r="1013" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>2</v>
       </c>
@@ -20518,7 +20707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1014" spans="1:11">
+    <row r="1014" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>2</v>
       </c>
@@ -20550,7 +20739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1015" spans="1:11">
+    <row r="1015" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>2</v>
       </c>
@@ -20582,7 +20771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:11">
+    <row r="1016" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>2</v>
       </c>
@@ -20614,7 +20803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" spans="1:11">
+    <row r="1017" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>2</v>
       </c>
@@ -20646,7 +20835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1018" spans="1:11">
+    <row r="1018" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>2</v>
       </c>
@@ -20678,7 +20867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1019" spans="1:11">
+    <row r="1019" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>2</v>
       </c>
@@ -20710,7 +20899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:11">
+    <row r="1020" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>2</v>
       </c>
@@ -20742,7 +20931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1021" spans="1:11">
+    <row r="1021" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>2</v>
       </c>
@@ -20774,7 +20963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1022" spans="1:11">
+    <row r="1022" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>3</v>
       </c>
@@ -20806,7 +20995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1023" spans="1:11">
+    <row r="1023" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>2</v>
       </c>
